--- a/data/trans_orig/P3A$otra-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P3A$otra-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24094</v>
+        <v>17546</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008374877408484494</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05908302613434603</v>
+        <v>0.04302651611946491</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>10482</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3844</v>
+        <v>3302</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23415</v>
+        <v>22853</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02891484074433402</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01060458961383966</v>
+        <v>0.009108187184942948</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06458990165057205</v>
+        <v>0.06303971266365339</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>13897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4565</v>
+        <v>5473</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29575</v>
+        <v>28433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01804115545539071</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00592625987656698</v>
+        <v>0.007104944219290124</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03839345189238918</v>
+        <v>0.03691084918436308</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14167</v>
+        <v>14166</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007046032694065847</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03474102117339792</v>
+        <v>0.03473772484044749</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7618</v>
+        <v>7815</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003912799430411048</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02101370583188121</v>
+        <v>0.02155699789823642</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -857,16 +857,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17122</v>
+        <v>15283</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.005571506989365992</v>
+        <v>0.005571506989365991</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02222791945808825</v>
+        <v>0.01983976847872372</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>11685</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2804</v>
+        <v>2930</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26428</v>
+        <v>28997</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02865403107736399</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006875955045309017</v>
+        <v>0.007185948737976795</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06480802364070935</v>
+        <v>0.07110736655739772</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -904,19 +904,19 @@
         <v>4102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11971</v>
+        <v>11540</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01131583481815334</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003247318276427119</v>
+        <v>0.003267441490309233</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03302363176472311</v>
+        <v>0.03183348007884778</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -925,19 +925,19 @@
         <v>15787</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6683</v>
+        <v>6868</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34092</v>
+        <v>33780</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02049453131911246</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008675407218853839</v>
+        <v>0.008916260658684044</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04425789472821378</v>
+        <v>0.04385269224998924</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8181</v>
+        <v>7666</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004070389032113994</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02256731771584505</v>
+        <v>0.0211473808619187</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7963</v>
+        <v>7634</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001915559025113714</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01033790560259049</v>
+        <v>0.009909761033529828</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>25918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13248</v>
+        <v>13082</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47084</v>
+        <v>46624</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06355678148476958</v>
+        <v>0.06355678148476959</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03248739892055338</v>
+        <v>0.03207944192613345</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1154608021549627</v>
+        <v>0.1143322902333729</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -1038,19 +1038,19 @@
         <v>32657</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20178</v>
+        <v>21107</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49642</v>
+        <v>46725</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09008400067373715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05566200117543742</v>
+        <v>0.05822327597618995</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1369394087246127</v>
+        <v>0.1288912356707047</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -1059,19 +1059,19 @@
         <v>58575</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>40756</v>
+        <v>40452</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>84974</v>
+        <v>84012</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.07604071206921438</v>
+        <v>0.07604071206921437</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05290897712449095</v>
+        <v>0.05251427947145534</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.110311645857212</v>
+        <v>0.1090634178826263</v>
       </c>
     </row>
     <row r="9">
@@ -1088,19 +1088,19 @@
         <v>318476</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>289242</v>
+        <v>290012</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>342686</v>
+        <v>343639</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7809738673042951</v>
+        <v>0.780973867304295</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7092874756659296</v>
+        <v>0.7111741488515795</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8403426741306208</v>
+        <v>0.8426792604371715</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>160</v>
@@ -1109,19 +1109,19 @@
         <v>287792</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>264432</v>
+        <v>265811</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>306040</v>
+        <v>305283</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7938814054507004</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.72944305482794</v>
+        <v>0.7332488087511391</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8442195784974703</v>
+        <v>0.8421317445017433</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>293</v>
@@ -1130,19 +1130,19 @@
         <v>606267</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>566642</v>
+        <v>569564</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>636337</v>
+        <v>639229</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.7870482624034546</v>
+        <v>0.7870482624034545</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7356070257607625</v>
+        <v>0.7394000853973803</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.826084567965756</v>
+        <v>0.8298387045881811</v>
       </c>
     </row>
     <row r="10">
@@ -1159,19 +1159,19 @@
         <v>199296</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168705</v>
+        <v>166312</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>235546</v>
+        <v>233239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4887195455474972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4137034419731642</v>
+        <v>0.4078333812768594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5776112459253899</v>
+        <v>0.5719535623265614</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -1180,19 +1180,19 @@
         <v>247501</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>222205</v>
+        <v>221924</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>273312</v>
+        <v>270730</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6827399424350366</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6129586000854818</v>
+        <v>0.6121827582153374</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7539386955696825</v>
+        <v>0.7468171304750334</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>238</v>
@@ -1201,19 +1201,19 @@
         <v>446798</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>408513</v>
+        <v>401474</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>489835</v>
+        <v>485110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5800271624317357</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5303266543896076</v>
+        <v>0.5211877941842842</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6358969760363137</v>
+        <v>0.6297633005614558</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>9528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3757</v>
+        <v>3336</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19765</v>
+        <v>19732</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01997987349032753</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007878516796116258</v>
+        <v>0.00699572794482089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04144504825312747</v>
+        <v>0.04137677258590804</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1255,19 +1255,19 @@
         <v>6163</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2389</v>
+        <v>2449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13856</v>
+        <v>14742</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01228423189599139</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00476195295435943</v>
+        <v>0.004880550735366538</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02761706245509078</v>
+        <v>0.02938252197402779</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1276,19 +1276,19 @@
         <v>15692</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7785</v>
+        <v>8658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26658</v>
+        <v>27622</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01603437575684912</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007955156491752944</v>
+        <v>0.008847030306215859</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02724066343181836</v>
+        <v>0.0282250747657713</v>
       </c>
     </row>
     <row r="12">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10536</v>
+        <v>10050</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005485842607711084</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02209247139237969</v>
+        <v>0.0210744711414723</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1326,19 +1326,19 @@
         <v>3464</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10181</v>
+        <v>9207</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.00690434139841578</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001833774667117361</v>
+        <v>0.001786819908346445</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0202907759764591</v>
+        <v>0.01835057658736881</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1347,19 +1347,19 @@
         <v>6080</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2525</v>
+        <v>2098</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14159</v>
+        <v>13353</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.006213096299955057</v>
+        <v>0.006213096299955058</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002580579052429015</v>
+        <v>0.002143904443975156</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01446834640112966</v>
+        <v>0.01364470140797323</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>3995</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12042</v>
+        <v>11509</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007962634816420729</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002133359270119474</v>
+        <v>0.002146656094382527</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02400107572563133</v>
+        <v>0.02293774194337997</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1410,19 +1410,19 @@
         <v>3995</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11665</v>
+        <v>10458</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.004082383156178475</v>
+        <v>0.004082383156178476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001094657534787775</v>
+        <v>0.001090035548366022</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01191979035960062</v>
+        <v>0.01068601753939358</v>
       </c>
     </row>
     <row r="14">
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18896</v>
+        <v>15703</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008126208761873222</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03962400436573012</v>
+        <v>0.03292697410944789</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21637</v>
+        <v>22683</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003959962470551614</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02210938855965129</v>
+        <v>0.02317892448205955</v>
       </c>
     </row>
     <row r="15">
@@ -1502,19 +1502,19 @@
         <v>177539</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>150639</v>
+        <v>151650</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>204283</v>
+        <v>204980</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3722858812878947</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3158772782286521</v>
+        <v>0.3179983724183881</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.42836587489901</v>
+        <v>0.4298257912981472</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>123</v>
@@ -1523,19 +1523,19 @@
         <v>127206</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>107398</v>
+        <v>107304</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>148473</v>
+        <v>147135</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2535332970526787</v>
+        <v>0.2535332970526788</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2140547903106841</v>
+        <v>0.213867559634218</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2959205671058657</v>
+        <v>0.2932533406001138</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>237</v>
@@ -1544,19 +1544,19 @@
         <v>304745</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>271394</v>
+        <v>272389</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>339642</v>
+        <v>341668</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3114023219119506</v>
+        <v>0.3114023219119507</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2773221815727545</v>
+        <v>0.278339242753623</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3470615719017781</v>
+        <v>0.3491309424169287</v>
       </c>
     </row>
     <row r="16">
@@ -1573,19 +1573,19 @@
         <v>200368</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>172544</v>
+        <v>172775</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>228345</v>
+        <v>230233</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4201565965746998</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3618112791435988</v>
+        <v>0.3622951637452472</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4788203295811043</v>
+        <v>0.4827807616389852</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -1594,19 +1594,19 @@
         <v>158695</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139984</v>
+        <v>136874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>183103</v>
+        <v>180964</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.316294246330238</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2790008088601489</v>
+        <v>0.272802156838884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3649410780707357</v>
+        <v>0.3606784773705479</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>263</v>
@@ -1615,19 +1615,19 @@
         <v>359064</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>323160</v>
+        <v>323395</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>396684</v>
+        <v>392842</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.366907148499459</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3302188408537375</v>
+        <v>0.3304593398854627</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4053490894880383</v>
+        <v>0.4014233643924395</v>
       </c>
     </row>
     <row r="17">
@@ -1644,19 +1644,19 @@
         <v>313266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>283549</v>
+        <v>287823</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>338373</v>
+        <v>339625</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6568936673576009</v>
+        <v>0.6568936673576011</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5945800070049443</v>
+        <v>0.6035416578746597</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7095405340721217</v>
+        <v>0.7121657137042571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>434</v>
@@ -1665,19 +1665,19 @@
         <v>465725</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>448387</v>
+        <v>451780</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>476997</v>
+        <v>478557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9282333990001176</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8936762018829805</v>
+        <v>0.9004399285836238</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9506992675079438</v>
+        <v>0.9538090108432365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>636</v>
@@ -1686,19 +1686,19 @@
         <v>778991</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>744378</v>
+        <v>743114</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>808068</v>
+        <v>808004</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7960075129122215</v>
+        <v>0.7960075129122216</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7606378926196337</v>
+        <v>0.7593469168007655</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8257195212418127</v>
+        <v>0.8256541726357143</v>
       </c>
     </row>
     <row r="18">
@@ -1719,19 +1719,19 @@
         <v>7218</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2400</v>
+        <v>3523</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14383</v>
+        <v>14353</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0116266402795354</v>
+        <v>0.01162664027953539</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003866180712431151</v>
+        <v>0.005674230557530603</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0231677214900649</v>
+        <v>0.02311858601330122</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1740,19 +1740,19 @@
         <v>6010</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2401</v>
+        <v>2933</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10899</v>
+        <v>10985</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.009643874749033551</v>
+        <v>0.009643874749033547</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003853467087450933</v>
+        <v>0.004706375025355856</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01748864309248348</v>
+        <v>0.01762672259788827</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -1761,19 +1761,19 @@
         <v>13228</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7404</v>
+        <v>7726</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>21831</v>
+        <v>22417</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0106333801431371</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.005951440538114019</v>
+        <v>0.006210164081477061</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01754844252581223</v>
+        <v>0.01801974825570645</v>
       </c>
     </row>
     <row r="19">
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6086</v>
+        <v>6009</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002761189944434617</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009803608968576048</v>
+        <v>0.009679293263092527</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1811,19 +1811,19 @@
         <v>3485</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1253</v>
+        <v>1006</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7986</v>
+        <v>7932</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005592850731064409</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002009910508244824</v>
+        <v>0.001614000265624441</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.012815401342295</v>
+        <v>0.01272856931138728</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1832,19 +1832,19 @@
         <v>5200</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2264</v>
+        <v>2105</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9942</v>
+        <v>10735</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004179701480919582</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001820241261870537</v>
+        <v>0.001692118568516568</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007992128126358052</v>
+        <v>0.008628977198685526</v>
       </c>
     </row>
     <row r="20">
@@ -1861,19 +1861,19 @@
         <v>8796</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3413</v>
+        <v>3815</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17520</v>
+        <v>16903</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01416744635694693</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005497508492300052</v>
+        <v>0.00614449956007897</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02821951581801302</v>
+        <v>0.0272266432614701</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1882,19 +1882,19 @@
         <v>6701</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3057</v>
+        <v>3084</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12282</v>
+        <v>11953</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01075191233765309</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004904727688183252</v>
+        <v>0.004949079456362577</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01970806997358981</v>
+        <v>0.01918042129831008</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1903,19 +1903,19 @@
         <v>15496</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9426</v>
+        <v>9832</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24725</v>
+        <v>25215</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0124564453668207</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007576985942224441</v>
+        <v>0.007903298525931335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01987459664488131</v>
+        <v>0.0202690613262517</v>
       </c>
     </row>
     <row r="21">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7426</v>
+        <v>7094</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.003337181438784176</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01196092501846083</v>
+        <v>0.01142671708789226</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3545</v>
+        <v>3554</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.001140032272566181</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.005687873168749233</v>
+        <v>0.005703403395780453</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1974,19 +1974,19 @@
         <v>2782</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7960</v>
+        <v>8088</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.002236526496506297</v>
+        <v>0.002236526496506296</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0005662429211369616</v>
+        <v>0.0005685338032596485</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.006398755237712129</v>
+        <v>0.006501446433668181</v>
       </c>
     </row>
     <row r="22">
@@ -2003,19 +2003,19 @@
         <v>381215</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>352907</v>
+        <v>355882</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>404321</v>
+        <v>406664</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6140333816960771</v>
+        <v>0.6140333816960772</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5684377411224805</v>
+        <v>0.5732291639360974</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6512507132948214</v>
+        <v>0.6550256523624399</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>315</v>
@@ -2024,19 +2024,19 @@
         <v>228978</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>210918</v>
+        <v>209107</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>251479</v>
+        <v>250525</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3674273771590796</v>
+        <v>0.3674273771590797</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3384466263024029</v>
+        <v>0.3355407815359971</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4035334030182023</v>
+        <v>0.4020029405655245</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>647</v>
@@ -2045,19 +2045,19 @@
         <v>610192</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>577427</v>
+        <v>573819</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>645502</v>
+        <v>641250</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4904968818250816</v>
+        <v>0.4904968818250815</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4641590859802198</v>
+        <v>0.4612585073351438</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5188799178552417</v>
+        <v>0.5154625501296242</v>
       </c>
     </row>
     <row r="23">
@@ -2074,19 +2074,19 @@
         <v>118120</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>99857</v>
+        <v>98899</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>141839</v>
+        <v>139056</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1902594456879567</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1608421008103053</v>
+        <v>0.1592996169950363</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2284638688242724</v>
+        <v>0.2239813327112962</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>151</v>
@@ -2095,19 +2095,19 @@
         <v>101660</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>86672</v>
+        <v>86552</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>117162</v>
+        <v>118291</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1631279055075923</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1390778937825205</v>
+        <v>0.1388849653584205</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1880028981248036</v>
+        <v>0.1898139421630371</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>259</v>
@@ -2116,19 +2116,19 @@
         <v>219780</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>196236</v>
+        <v>196234</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>246746</v>
+        <v>247095</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1766679862411992</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1577421057497348</v>
+        <v>0.1577407949979564</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1983438773413754</v>
+        <v>0.1986250589907433</v>
       </c>
     </row>
     <row r="24">
@@ -2145,19 +2145,19 @@
         <v>468248</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>442622</v>
+        <v>441098</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>488866</v>
+        <v>487468</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7542202144711105</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7129435070769995</v>
+        <v>0.7104887426730835</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7874308343600523</v>
+        <v>0.7851786859391875</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>823</v>
@@ -2166,19 +2166,19 @@
         <v>604805</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>597101</v>
+        <v>596326</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>610765</v>
+        <v>610791</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9704937849833702</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9581312597235749</v>
+        <v>0.9568882712795587</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9800581787796102</v>
+        <v>0.9800998114469552</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1236</v>
@@ -2187,19 +2187,19 @@
         <v>1073052</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1047576</v>
+        <v>1042296</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1097059</v>
+        <v>1094970</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.8625617772236068</v>
+        <v>0.8625617772236067</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8420836261609278</v>
+        <v>0.8378393249083881</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8818600659225219</v>
+        <v>0.8801805749618231</v>
       </c>
     </row>
     <row r="25">
@@ -2220,19 +2220,19 @@
         <v>7721</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3116</v>
+        <v>3268</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15273</v>
+        <v>14474</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01102010552281439</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004446862966092807</v>
+        <v>0.004664947755046901</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0217988543460119</v>
+        <v>0.02065958300253852</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2241,19 +2241,19 @@
         <v>3021</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1164</v>
+        <v>1133</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7117</v>
+        <v>6647</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.00410284746891443</v>
+        <v>0.004102847468914429</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001580709838516095</v>
+        <v>0.001539314138690909</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009666779918444238</v>
+        <v>0.009029336072194962</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2262,19 +2262,19 @@
         <v>10741</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5858</v>
+        <v>6024</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18692</v>
+        <v>19134</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.007475800548496555</v>
+        <v>0.007475800548496557</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00407699920425735</v>
+        <v>0.004192384013314156</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01300899730418578</v>
+        <v>0.0133171487615925</v>
       </c>
     </row>
     <row r="26">
@@ -2291,19 +2291,19 @@
         <v>11717</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6020</v>
+        <v>5668</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20660</v>
+        <v>20578</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0167232058369676</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008592116995998126</v>
+        <v>0.008089903144152123</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02948769033252961</v>
+        <v>0.02937065698722418</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2312,19 +2312,19 @@
         <v>3564</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1317</v>
+        <v>1369</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8080</v>
+        <v>9222</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004841418525712226</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001788683370984711</v>
+        <v>0.001859695212449328</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01097499598402131</v>
+        <v>0.01252668247726615</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -2333,19 +2333,19 @@
         <v>15281</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8972</v>
+        <v>8721</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24717</v>
+        <v>24789</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0106351464436469</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00624409300489583</v>
+        <v>0.006069508459458775</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01720264098239262</v>
+        <v>0.01725252367450148</v>
       </c>
     </row>
     <row r="27">
@@ -2362,19 +2362,19 @@
         <v>13838</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6729</v>
+        <v>6948</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>23337</v>
+        <v>23427</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01975091556214745</v>
+        <v>0.01975091556214744</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.009604212540875305</v>
+        <v>0.009917313066652795</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03330856641365507</v>
+        <v>0.03343714236197625</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>26</v>
@@ -2383,19 +2383,19 @@
         <v>17322</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11627</v>
+        <v>11457</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>25047</v>
+        <v>24983</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02352902029779932</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01579322479940398</v>
+        <v>0.015562471292316</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03402167823874044</v>
+        <v>0.03393436598922201</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>38</v>
@@ -2404,19 +2404,19 @@
         <v>31160</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>21786</v>
+        <v>22685</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>42518</v>
+        <v>44183</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.02168676287386006</v>
+        <v>0.02168676287386007</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01516275214710591</v>
+        <v>0.01578803500575766</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02959141069955135</v>
+        <v>0.03075012146009227</v>
       </c>
     </row>
     <row r="28">
@@ -2433,19 +2433,19 @@
         <v>6938</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3304</v>
+        <v>2953</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14386</v>
+        <v>14725</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.009903073750494169</v>
+        <v>0.009903073750494167</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004715852783038937</v>
+        <v>0.004215113614326713</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02053304332846007</v>
+        <v>0.02101761938895341</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2454,19 +2454,19 @@
         <v>3760</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1376</v>
+        <v>1680</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8164</v>
+        <v>8644</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.005106629000373626</v>
+        <v>0.005106629000373625</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001869110306818571</v>
+        <v>0.00228135039100443</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01108986114573191</v>
+        <v>0.01174136129871371</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -2475,19 +2475,19 @@
         <v>10698</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5863</v>
+        <v>5724</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17891</v>
+        <v>17982</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007445443450391625</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004080676862561466</v>
+        <v>0.003983508404970362</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01245146756893151</v>
+        <v>0.01251539525943477</v>
       </c>
     </row>
     <row r="29">
@@ -2504,19 +2504,19 @@
         <v>395618</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>367134</v>
+        <v>370574</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>420059</v>
+        <v>423660</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5646702267721706</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5240149693631945</v>
+        <v>0.5289254803012471</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5995564377500011</v>
+        <v>0.6046954034428901</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>343</v>
@@ -2525,19 +2525,19 @@
         <v>220194</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>200960</v>
+        <v>201649</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>240081</v>
+        <v>240354</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.299091775232023</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2729662006932214</v>
+        <v>0.2739014811722467</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3261033727119697</v>
+        <v>0.3264742996357634</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>714</v>
@@ -2546,19 +2546,19 @@
         <v>615812</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>583232</v>
+        <v>581343</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>651221</v>
+        <v>652073</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4285915927916627</v>
+        <v>0.4285915927916628</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4059167271040913</v>
+        <v>0.4046019010440934</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4532355248763336</v>
+        <v>0.4538287873440134</v>
       </c>
     </row>
     <row r="30">
@@ -2575,19 +2575,19 @@
         <v>129634</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>112580</v>
+        <v>111503</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>154510</v>
+        <v>150973</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.185028294935637</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1606870165304319</v>
+        <v>0.1591501368599957</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2205342556749744</v>
+        <v>0.2154853402060617</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>301</v>
@@ -2596,19 +2596,19 @@
         <v>180421</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>162285</v>
+        <v>163819</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>198482</v>
+        <v>198712</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2450670252533715</v>
+        <v>0.2450670252533714</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.220433588501586</v>
+        <v>0.2225165476505853</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.269599777799279</v>
+        <v>0.2699123649066551</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>435</v>
@@ -2617,19 +2617,19 @@
         <v>310055</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>284716</v>
+        <v>283126</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>338035</v>
+        <v>337301</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2157912892982513</v>
+        <v>0.2157912892982514</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.198155986228464</v>
+        <v>0.1970493792486895</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2352652302190319</v>
+        <v>0.2347538968323938</v>
       </c>
     </row>
     <row r="31">
@@ -2646,19 +2646,19 @@
         <v>507007</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>481206</v>
+        <v>483087</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>531068</v>
+        <v>532392</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7236582860498022</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6868312196273948</v>
+        <v>0.6895166715940072</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7579998937327339</v>
+        <v>0.7598905469971212</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1110</v>
@@ -2667,19 +2667,19 @@
         <v>716572</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>708319</v>
+        <v>708979</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>722959</v>
+        <v>723595</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.9733254142833284</v>
+        <v>0.9733254142833283</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.9621156429993137</v>
+        <v>0.9630119685564533</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9820008665336117</v>
+        <v>0.98286496594589</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1596</v>
@@ -2688,19 +2688,19 @@
         <v>1223579</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1198822</v>
+        <v>1196465</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1250559</v>
+        <v>1250898</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.8515841835118505</v>
+        <v>0.8515841835118507</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.8343540534549657</v>
+        <v>0.832713308521469</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.8703617594353797</v>
+        <v>0.8705978116322851</v>
       </c>
     </row>
     <row r="32">
@@ -2721,19 +2721,19 @@
         <v>3316</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8971</v>
+        <v>7939</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005441321344133004</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001635216169402537</v>
+        <v>0.001637295986020974</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01472293754982029</v>
+        <v>0.01302901692209894</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2742,19 +2742,19 @@
         <v>1929</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5244</v>
+        <v>5246</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.003168907769372531</v>
+        <v>0.003168907769372532</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0009288070055589836</v>
+        <v>0.0009278305863544712</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008612764463134382</v>
+        <v>0.008616889181802596</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -2763,19 +2763,19 @@
         <v>5245</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2255</v>
+        <v>2063</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10999</v>
+        <v>10270</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004305572548940913</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001850793616486957</v>
+        <v>0.001693804193622369</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.009029174329391336</v>
+        <v>0.008430359976696097</v>
       </c>
     </row>
     <row r="33">
@@ -2792,19 +2792,19 @@
         <v>8610</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>4599</v>
+        <v>3890</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15644</v>
+        <v>15513</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01413018536953432</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.00754732465182606</v>
+        <v>0.006383564239036016</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02567292723310797</v>
+        <v>0.02545901136268925</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>20</v>
@@ -2813,19 +2813,19 @@
         <v>12797</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>8273</v>
+        <v>7584</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>20184</v>
+        <v>19696</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02101808499579643</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01358844146481425</v>
+        <v>0.01245669949160708</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03315041096173042</v>
+        <v>0.03234964761699504</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>30</v>
@@ -2834,19 +2834,19 @@
         <v>21407</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>14345</v>
+        <v>13892</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>29922</v>
+        <v>29509</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01757274696519625</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0117754392764183</v>
+        <v>0.01140402202053334</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02456257327475874</v>
+        <v>0.02422377035990488</v>
       </c>
     </row>
     <row r="34">
@@ -2863,19 +2863,19 @@
         <v>10424</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5621</v>
+        <v>5299</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18350</v>
+        <v>18527</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.01710757083145396</v>
+        <v>0.01710757083145395</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.009224889449764332</v>
+        <v>0.00869641111811187</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0301135076099411</v>
+        <v>0.03040451337031464</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>20</v>
@@ -2884,19 +2884,19 @@
         <v>12747</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8125</v>
+        <v>7724</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>18946</v>
+        <v>18738</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02093671981403427</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01334537317829693</v>
+        <v>0.01268671355484707</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03111790284993848</v>
+        <v>0.03077511911282961</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>31</v>
@@ -2905,19 +2905,19 @@
         <v>23172</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>15804</v>
+        <v>16027</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>33324</v>
+        <v>31992</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01902137357928124</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01297290659593429</v>
+        <v>0.01315598082974151</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02735507951540979</v>
+        <v>0.02626192993886958</v>
       </c>
     </row>
     <row r="35">
@@ -2934,19 +2934,19 @@
         <v>9555</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4742</v>
+        <v>4468</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17583</v>
+        <v>17573</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01568030486399774</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007781373840343727</v>
+        <v>0.007332823614921121</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02885603499833379</v>
+        <v>0.02883843170045375</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2955,19 +2955,19 @@
         <v>2959</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1155</v>
+        <v>992</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6623</v>
+        <v>6108</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.004860001678865398</v>
+        <v>0.0048600016788654</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001896688345603758</v>
+        <v>0.001629827174663295</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01087769586628865</v>
+        <v>0.01003175183849969</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>15</v>
@@ -2976,19 +2976,19 @@
         <v>12514</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6933</v>
+        <v>7066</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20795</v>
+        <v>21179</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01027233404274327</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005690886024231884</v>
+        <v>0.005800728063854251</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01707052999436914</v>
+        <v>0.01738527533369403</v>
       </c>
     </row>
     <row r="36">
@@ -3005,19 +3005,19 @@
         <v>365316</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>341770</v>
+        <v>342017</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>387880</v>
+        <v>389917</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5995213904248399</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5608806054471723</v>
+        <v>0.5612853557519698</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6365517261677591</v>
+        <v>0.6398944327585794</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>228</v>
@@ -3026,19 +3026,19 @@
         <v>134914</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>119724</v>
+        <v>119248</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>151626</v>
+        <v>149252</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2215864761836285</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1966371669934986</v>
+        <v>0.1958568252575335</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2490340257945685</v>
+        <v>0.2451362880927921</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>622</v>
@@ -3047,19 +3047,19 @@
         <v>500230</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>469456</v>
+        <v>471505</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>530474</v>
+        <v>531532</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.4106301039627236</v>
+        <v>0.4106301039627237</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.385367972072321</v>
+        <v>0.3870495959252845</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4354565508532322</v>
+        <v>0.4363247238234163</v>
       </c>
     </row>
     <row r="37">
@@ -3076,19 +3076,19 @@
         <v>121542</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>102937</v>
+        <v>102826</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>142688</v>
+        <v>141757</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.199463695570119</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1689305613347792</v>
+        <v>0.1687473130477662</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.234165440990205</v>
+        <v>0.2326376259962712</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>179</v>
@@ -3097,19 +3097,19 @@
         <v>99785</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>85936</v>
+        <v>88333</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>113137</v>
+        <v>114663</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1638892179986488</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1411444239421705</v>
+        <v>0.1450798982804974</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.185819013212562</v>
+        <v>0.1883248337642117</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>313</v>
@@ -3118,19 +3118,19 @@
         <v>221327</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>198182</v>
+        <v>197543</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>244416</v>
+        <v>245849</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1816836266204587</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1626839018184223</v>
+        <v>0.1621597258656969</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2006365278409938</v>
+        <v>0.2018133945820549</v>
       </c>
     </row>
     <row r="38">
@@ -3147,19 +3147,19 @@
         <v>418530</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>396066</v>
+        <v>395843</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>439222</v>
+        <v>438440</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.6868519075019465</v>
+        <v>0.6868519075019464</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6499848930777268</v>
+        <v>0.6496191472253049</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7208084299282244</v>
+        <v>0.7195258538190414</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>974</v>
@@ -3168,19 +3168,19 @@
         <v>590445</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>583079</v>
+        <v>582752</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>596406</v>
+        <v>596479</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.9697629513003423</v>
+        <v>0.9697629513003425</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9576654144555552</v>
+        <v>0.9571282127452969</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9795526260077375</v>
+        <v>0.9796728664553978</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1429</v>
@@ -3189,19 +3189,19 @@
         <v>1008976</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>985787</v>
+        <v>982851</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1034414</v>
+        <v>1030360</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8282504102698389</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8092150566350997</v>
+        <v>0.8068047371895128</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8491319816485101</v>
+        <v>0.8458041814194086</v>
       </c>
     </row>
     <row r="39">
@@ -3222,19 +3222,19 @@
         <v>4602</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2079</v>
+        <v>2027</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>10035</v>
+        <v>9755</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01133432853922471</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.005119760246095102</v>
+        <v>0.004992082831524741</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02471784032261593</v>
+        <v>0.02402831228595309</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>3</v>
@@ -3243,19 +3243,19 @@
         <v>1475</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4321</v>
+        <v>4361</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.003363830170072083</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0009836572973375662</v>
+        <v>0.0009774669258933572</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.009851594087429456</v>
+        <v>0.009942947885062605</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>9</v>
@@ -3264,19 +3264,19 @@
         <v>6077</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2797</v>
+        <v>2772</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>11545</v>
+        <v>11779</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.007195201104460866</v>
+        <v>0.007195201104460867</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.003311376161695277</v>
+        <v>0.003282540463740493</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01366975527918734</v>
+        <v>0.01394608739931587</v>
       </c>
     </row>
     <row r="40">
@@ -3293,19 +3293,19 @@
         <v>14527</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9707</v>
+        <v>9555</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>22535</v>
+        <v>22516</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03578260983725173</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02390932520196815</v>
+        <v>0.02353599632880358</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05550643708075439</v>
+        <v>0.05546028965518945</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>51</v>
@@ -3314,19 +3314,19 @@
         <v>27216</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>20821</v>
+        <v>20491</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>36291</v>
+        <v>35281</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.06205113593968929</v>
+        <v>0.06205113593968928</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.047472425985657</v>
+        <v>0.04671976573373733</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08274388884095701</v>
+        <v>0.08043959737344424</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>73</v>
@@ -3335,19 +3335,19 @@
         <v>41743</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>33787</v>
+        <v>33286</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>51431</v>
+        <v>52360</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.04942401242284296</v>
+        <v>0.04942401242284297</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04000461443989388</v>
+        <v>0.03941113948717271</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06089562303724014</v>
+        <v>0.06199488391485509</v>
       </c>
     </row>
     <row r="41">
@@ -3364,19 +3364,19 @@
         <v>21841</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15341</v>
+        <v>15015</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>31945</v>
+        <v>29897</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05379768452629979</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03778821202129862</v>
+        <v>0.03698499980220887</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07868456249957384</v>
+        <v>0.07364052164809237</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>44</v>
@@ -3385,19 +3385,19 @@
         <v>24436</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>17957</v>
+        <v>18417</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>32820</v>
+        <v>32257</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.05571487218286028</v>
+        <v>0.05571487218286027</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04094103305316708</v>
+        <v>0.04199039409219376</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07482831493134555</v>
+        <v>0.07354553082528308</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>75</v>
@@ -3406,19 +3406,19 @@
         <v>46278</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>36588</v>
+        <v>37021</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>57452</v>
+        <v>58056</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.05479329153345657</v>
+        <v>0.05479329153345658</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.04332109532952556</v>
+        <v>0.04383294648398069</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06802427856137493</v>
+        <v>0.06873885356896949</v>
       </c>
     </row>
     <row r="42">
@@ -3435,19 +3435,19 @@
         <v>6129</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3043</v>
+        <v>3135</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11217</v>
+        <v>12111</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01509542869916254</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.007496400583350674</v>
+        <v>0.00772125864938965</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02762789947761022</v>
+        <v>0.02983106233129124</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>20</v>
@@ -3456,19 +3456,19 @@
         <v>10766</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>6808</v>
+        <v>6811</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>16299</v>
+        <v>16582</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.02454740795577872</v>
+        <v>0.02454740795577871</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01552329213122917</v>
+        <v>0.0155279211461861</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03716135557918049</v>
+        <v>0.03780705697433381</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>29</v>
@@ -3477,19 +3477,19 @@
         <v>16895</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>11159</v>
+        <v>11631</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>23762</v>
+        <v>24637</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02000389801210941</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01321266794237303</v>
+        <v>0.01377091783086307</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02813514813088306</v>
+        <v>0.02917058449007411</v>
       </c>
     </row>
     <row r="43">
@@ -3506,19 +3506,19 @@
         <v>241946</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>224889</v>
+        <v>225772</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>257710</v>
+        <v>258786</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.5959458518003982</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5539338975225899</v>
+        <v>0.5561088346654386</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.6347746785376959</v>
+        <v>0.6374249020584278</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>121</v>
@@ -3527,19 +3527,19 @@
         <v>60265</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>50283</v>
+        <v>50218</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>71031</v>
+        <v>70658</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1374029994546517</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1146450957634295</v>
+        <v>0.1144957215786821</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1619491647507857</v>
+        <v>0.161098661510186</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>456</v>
@@ -3548,19 +3548,19 @@
         <v>302211</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>280474</v>
+        <v>280173</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>324810</v>
+        <v>325230</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.3578218083272013</v>
+        <v>0.3578218083272015</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3320851576072177</v>
+        <v>0.3317285511522368</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3845803603763154</v>
+        <v>0.385076655527148</v>
       </c>
     </row>
     <row r="44">
@@ -3577,19 +3577,19 @@
         <v>52489</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>42592</v>
+        <v>41374</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>65632</v>
+        <v>64409</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1292882381621786</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1049098370824588</v>
+        <v>0.1019101032631073</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1616616681304027</v>
+        <v>0.1586485541458181</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>96</v>
@@ -3598,19 +3598,19 @@
         <v>50795</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>41349</v>
+        <v>41605</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>60736</v>
+        <v>61326</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1158125715745774</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.09427456714134222</v>
+        <v>0.09485885563790182</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1384772364675415</v>
+        <v>0.1398217364531422</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>171</v>
@@ -3619,19 +3619,19 @@
         <v>103284</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>89083</v>
+        <v>89366</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>119664</v>
+        <v>119012</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1222902439727136</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1054760361364465</v>
+        <v>0.1058107115623751</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1416834859268649</v>
+        <v>0.1409117441709744</v>
       </c>
     </row>
     <row r="45">
@@ -3648,19 +3648,19 @@
         <v>253943</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>238717</v>
+        <v>235832</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>269517</v>
+        <v>270439</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.6254961527764289</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5879936739053294</v>
+        <v>0.5808870874982949</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6638586169878907</v>
+        <v>0.6661276721201231</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>780</v>
@@ -3669,19 +3669,19 @@
         <v>413444</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>404797</v>
+        <v>404937</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>419402</v>
+        <v>419390</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.9426494355641667</v>
+        <v>0.9426494355641666</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.9229347226467559</v>
+        <v>0.9232520487576202</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.9562334182846925</v>
+        <v>0.9562064418644859</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1137</v>
@@ -3690,19 +3690,19 @@
         <v>667387</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>648532</v>
+        <v>647104</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>687394</v>
+        <v>686260</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.7901957478347116</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.767871407695326</v>
+        <v>0.7661801919846505</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.813885088362166</v>
+        <v>0.8125419057428297</v>
       </c>
     </row>
     <row r="46">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>5059</v>
+        <v>5523</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.004849659658113109</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01630891436826537</v>
+        <v>0.01780622694637794</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>6</v>
@@ -3744,19 +3744,19 @@
         <v>4243</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1387</v>
+        <v>1307</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>8834</v>
+        <v>9485</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.009133297270733906</v>
+        <v>0.009133297270733903</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.002984412230382321</v>
+        <v>0.002812585972252535</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01901473504900852</v>
+        <v>0.02041552430918587</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>8</v>
@@ -3765,19 +3765,19 @@
         <v>5748</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2548</v>
+        <v>2371</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>12086</v>
+        <v>11830</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.007418319476678918</v>
+        <v>0.007418319476678915</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.003289096961713315</v>
+        <v>0.003060182387360626</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01559859410266772</v>
+        <v>0.01526841408032174</v>
       </c>
     </row>
     <row r="47">
@@ -3794,19 +3794,19 @@
         <v>64691</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>53806</v>
+        <v>53471</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>78235</v>
+        <v>77576</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2085476362402344</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1734577945785643</v>
+        <v>0.172378257409432</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2522095972784655</v>
+        <v>0.2500866914753108</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>213</v>
@@ -3815,19 +3815,19 @@
         <v>106693</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>93907</v>
+        <v>93849</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>118688</v>
+        <v>119888</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2296405871635557</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2021195910153655</v>
+        <v>0.2019952323186969</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2554579909190131</v>
+        <v>0.2580406238494059</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>313</v>
@@ -3836,19 +3836,19 @@
         <v>171384</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>152627</v>
+        <v>153859</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>189629</v>
+        <v>188895</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2211959086646068</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1969874080105564</v>
+        <v>0.1985769797987835</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2447430191200393</v>
+        <v>0.2437956510950473</v>
       </c>
     </row>
     <row r="48">
@@ -3865,19 +3865,19 @@
         <v>37343</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>27796</v>
+        <v>29018</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>47792</v>
+        <v>49402</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1203838484077715</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.08960639495007194</v>
+        <v>0.09354624588754973</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1540689262415958</v>
+        <v>0.1592608364300907</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>122</v>
@@ -3886,19 +3886,19 @@
         <v>68568</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>57103</v>
+        <v>56373</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>80370</v>
+        <v>81396</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1475829966545631</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1229059381455452</v>
+        <v>0.121334273435412</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1729831465124103</v>
+        <v>0.175191597715049</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>179</v>
@@ -3907,19 +3907,19 @@
         <v>105911</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>91841</v>
+        <v>92241</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>121294</v>
+        <v>122025</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1366936685930517</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1185335508286708</v>
+        <v>0.1190509064621299</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1565476549957905</v>
+        <v>0.1574906148707835</v>
       </c>
     </row>
     <row r="49">
@@ -3936,19 +3936,19 @@
         <v>33280</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>25572</v>
+        <v>24334</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>43153</v>
+        <v>43133</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1072874973430447</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.08243761297243429</v>
+        <v>0.07844590254969504</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1391149955893237</v>
+        <v>0.1390491455129483</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>141</v>
@@ -3957,19 +3957,19 @@
         <v>68847</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>58288</v>
+        <v>58233</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>80932</v>
+        <v>80626</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1481831386905366</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1254563753022983</v>
+        <v>0.1253366558319595</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1741927456794686</v>
+        <v>0.1735348247281998</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>193</v>
@@ -3978,19 +3978,19 @@
         <v>102128</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>88294</v>
+        <v>88613</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>116567</v>
+        <v>116596</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1318103445545556</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1139560839348659</v>
+        <v>0.114367341031745</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1504459861469032</v>
+        <v>0.1504839510971583</v>
       </c>
     </row>
     <row r="50">
@@ -4007,19 +4007,19 @@
         <v>150566</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>135491</v>
+        <v>135574</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>164669</v>
+        <v>165212</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4853863628831948</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4367894911734632</v>
+        <v>0.4370553814597197</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.530851527006623</v>
+        <v>0.5326018426464367</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>54</v>
@@ -4028,19 +4028,19 @@
         <v>27125</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>20362</v>
+        <v>20639</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>35402</v>
+        <v>35120</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.05838238711438407</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.04382671861516195</v>
+        <v>0.04442294088620757</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.07619824395457336</v>
+        <v>0.07559119181251607</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>269</v>
@@ -4049,19 +4049,19 @@
         <v>177691</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>160009</v>
+        <v>159674</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>197788</v>
+        <v>196074</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.2293357689455495</v>
+        <v>0.2293357689455494</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2065145641238265</v>
+        <v>0.2060819787065285</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2552743079784701</v>
+        <v>0.2530610990006166</v>
       </c>
     </row>
     <row r="51">
@@ -4078,19 +4078,19 @@
         <v>33504</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>25371</v>
+        <v>24809</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>42840</v>
+        <v>43481</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.1080085188112102</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.0817888306886547</v>
+        <v>0.07997762736317951</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1381037368863129</v>
+        <v>0.1401724353202086</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>126</v>
@@ -4099,19 +4099,19 @@
         <v>69775</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>58676</v>
+        <v>59276</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>82171</v>
+        <v>81800</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.1501796300843394</v>
+        <v>0.1501796300843393</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.126291968004258</v>
+        <v>0.1275834707397912</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.1768611457663813</v>
+        <v>0.1760614552823932</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>176</v>
@@ -4120,19 +4120,19 @@
         <v>103279</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>89904</v>
+        <v>89251</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>118228</v>
+        <v>118513</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.1332961945736052</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1160342302984791</v>
+        <v>0.1151912474104333</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.1525908021684908</v>
+        <v>0.1529587249268493</v>
       </c>
     </row>
     <row r="52">
@@ -4149,19 +4149,19 @@
         <v>152265</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>138048</v>
+        <v>137991</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>166830</v>
+        <v>167463</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.4908650822359458</v>
+        <v>0.490865082235946</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.4450309485676421</v>
+        <v>0.4448494112259994</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.5378190147364894</v>
+        <v>0.5398583875022385</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>666</v>
@@ -4170,19 +4170,19 @@
         <v>347432</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>332121</v>
+        <v>334065</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>360655</v>
+        <v>362194</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.7477934574427576</v>
+        <v>0.7477934574427574</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.7148408437387512</v>
+        <v>0.7190232689662336</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.7762547414785824</v>
+        <v>0.7795674152230313</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>892</v>
@@ -4191,19 +4191,19 @@
         <v>499697</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>478931</v>
+        <v>477034</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>521593</v>
+        <v>518756</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.644930774370758</v>
+        <v>0.6449307743707577</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.6181291514089129</v>
+        <v>0.6156810021869116</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.6731914870565304</v>
+        <v>0.669529753539704</v>
       </c>
     </row>
     <row r="53">
@@ -4224,19 +4224,19 @@
         <v>37304</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>25705</v>
+        <v>25129</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>54543</v>
+        <v>52274</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01056275067239314</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.00727853887608288</v>
+        <v>0.007115324023655075</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01544384052330096</v>
+        <v>0.01480137873863271</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>35</v>
@@ -4245,19 +4245,19 @@
         <v>33324</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>23000</v>
+        <v>22720</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>49610</v>
+        <v>48195</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.008920425687357155</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.006156784967329851</v>
+        <v>0.006081799675423626</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01327999303877002</v>
+        <v>0.01290106367126481</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>67</v>
@@ -4266,19 +4266,19 @@
         <v>70628</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>55632</v>
+        <v>54345</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>94443</v>
+        <v>90919</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.009718533074497448</v>
+        <v>0.00971853307449745</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.00765496693751728</v>
+        <v>0.007477944193104139</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01299541564684864</v>
+        <v>0.0125105009767405</v>
       </c>
     </row>
     <row r="54">
@@ -4295,19 +4295,19 @@
         <v>106749</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>90655</v>
+        <v>90087</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>126913</v>
+        <v>125797</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.03022617796396665</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.02566911227969762</v>
+        <v>0.02550841957791017</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.03593580649560927</v>
+        <v>0.03561959450647068</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>298</v>
@@ -4316,19 +4316,19 @@
         <v>158638</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>141054</v>
+        <v>140279</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>178464</v>
+        <v>177120</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.04246524877948674</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.03775819779883305</v>
+        <v>0.03755090880979461</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.04777250185007053</v>
+        <v>0.04741277073446185</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>446</v>
@@ -4337,19 +4337,19 @@
         <v>265387</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>240768</v>
+        <v>239267</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>292763</v>
+        <v>293652</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.03651752654509246</v>
+        <v>0.03651752654509247</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.03313003311838535</v>
+        <v>0.03292345146399262</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.04028452132586065</v>
+        <v>0.040406821687683</v>
       </c>
     </row>
     <row r="55">
@@ -4366,19 +4366,19 @@
         <v>103927</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>85425</v>
+        <v>85341</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>127816</v>
+        <v>127856</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.02942712693183447</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.0241882333306379</v>
+        <v>0.02416439059867408</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.03619139624328958</v>
+        <v>0.0362026724435433</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>227</v>
@@ -4387,19 +4387,19 @@
         <v>137872</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>120840</v>
+        <v>117923</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>160216</v>
+        <v>159095</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.03690658681923908</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.03234714416498347</v>
+        <v>0.0315665311109557</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.04288759910046998</v>
+        <v>0.04258775700192215</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>350</v>
@@ -4408,19 +4408,19 @@
         <v>241799</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>216929</v>
+        <v>216057</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>271053</v>
+        <v>270605</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.03327185420398489</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.0298497194843199</v>
+        <v>0.02972976473708566</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.03729726621372113</v>
+        <v>0.03723553474181183</v>
       </c>
     </row>
     <row r="56">
@@ -4437,19 +4437,19 @@
         <v>61849</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>48668</v>
+        <v>49723</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>78763</v>
+        <v>81078</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.01751271256296945</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.01378056500794678</v>
+        <v>0.01407916786205429</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02230196074124071</v>
+        <v>0.02295733407109047</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>174</v>
@@ -4458,19 +4458,19 @@
         <v>88518</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>75708</v>
+        <v>76221</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>103630</v>
+        <v>104396</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.02369516945917878</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.02026599933833883</v>
+        <v>0.02040324928141576</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.02774028896986102</v>
+        <v>0.02794532562455269</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>255</v>
@@ -4479,19 +4479,19 @@
         <v>150367</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>131532</v>
+        <v>130794</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>172742</v>
+        <v>171251</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.02069073089525288</v>
+        <v>0.02069073089525289</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.0180989167348881</v>
+        <v>0.01799742098249282</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.0237695192801975</v>
+        <v>0.02356427663386767</v>
       </c>
     </row>
     <row r="57">
@@ -4508,19 +4508,19 @@
         <v>1738118</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>1676617</v>
+        <v>1675147</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>1808273</v>
+        <v>1806158</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.4921520294218328</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4747378781784632</v>
+        <v>0.4743216722758248</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5120166419398764</v>
+        <v>0.5114175633552323</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>1206</v>
@@ -4529,19 +4529,19 @@
         <v>831338</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>783931</v>
+        <v>790958</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>872219</v>
+        <v>877602</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.2225383448961876</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.2098479527136888</v>
+        <v>0.2117291406404459</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.2334815085995864</v>
+        <v>0.2349225061719885</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>2979</v>
@@ -4550,19 +4550,19 @@
         <v>2569457</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>2489182</v>
+        <v>2487784</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>2652087</v>
+        <v>2655005</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.3535603260842261</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.3425145153727588</v>
+        <v>0.3423221061707669</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.3649303721448481</v>
+        <v>0.3653319287485291</v>
       </c>
     </row>
     <row r="58">
@@ -4579,19 +4579,19 @@
         <v>974134</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>915407</v>
+        <v>909792</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>1040892</v>
+        <v>1036587</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.2758283500224135</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.2591995757924219</v>
+        <v>0.2576096285897158</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.2947308874621247</v>
+        <v>0.293511964059593</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>1155</v>
@@ -4600,19 +4600,19 @@
         <v>948922</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>893856</v>
+        <v>899325</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>996686</v>
+        <v>1003799</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.2540140009972114</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.2392733741726286</v>
+        <v>0.24073735149216</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.2667997688225335</v>
+        <v>0.2687036672757505</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>1910</v>
@@ -4621,19 +4621,19 @@
         <v>1923057</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>1834645</v>
+        <v>1841164</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>2006286</v>
+        <v>2003528</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.2646149437224961</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.2524493689353373</v>
+        <v>0.2533463970216558</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.2760674073636368</v>
+        <v>0.2756879407140926</v>
       </c>
     </row>
     <row r="59">
@@ -4650,19 +4650,19 @@
         <v>2312557</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>2243017</v>
+        <v>2240011</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>2374855</v>
+        <v>2377664</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.6548057754573988</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.6351154084348603</v>
+        <v>0.634264217676654</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.6724455680291604</v>
+        <v>0.6732410353417373</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>4937</v>
@@ -4671,19 +4671,19 @@
         <v>3385923</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>3347923</v>
+        <v>3346132</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>3420853</v>
+        <v>3420441</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.9063669999452783</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.8961948497794108</v>
+        <v>0.8957152698446258</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.9157172619145945</v>
+        <v>0.9156070272378266</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>7164</v>
@@ -4692,19 +4692,19 @@
         <v>5698481</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>5615034</v>
+        <v>5614401</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>5769336</v>
+        <v>5766036</v>
       </c>
       <c r="U59" s="6" t="n">
-        <v>0.7841178267236728</v>
+        <v>0.7841178267236727</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.7726354913281056</v>
+        <v>0.7725483567892708</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.7938676764520349</v>
+        <v>0.7934134885047113</v>
       </c>
     </row>
     <row r="60">
